--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_9.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_9.xlsx
@@ -414,16 +414,16 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +431,16 @@
         <v>0.55</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,16 +448,16 @@
         <v>0.6</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,16 +465,16 @@
         <v>0.65</v>
       </c>
       <c r="B5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -482,16 +482,16 @@
         <v>0.7</v>
       </c>
       <c r="B6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,7 +499,7 @@
         <v>0.75</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -516,7 +516,7 @@
         <v>0.8</v>
       </c>
       <c r="B8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -533,7 +533,7 @@
         <v>0.85</v>
       </c>
       <c r="B9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -550,7 +550,7 @@
         <v>0.9</v>
       </c>
       <c r="B10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_9.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_9.xlsx
@@ -414,16 +414,16 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +431,16 @@
         <v>0.55</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,16 +448,16 @@
         <v>0.6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,16 +465,16 @@
         <v>0.65</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -482,16 +482,16 @@
         <v>0.7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,16 +499,16 @@
         <v>0.75</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -516,16 +516,16 @@
         <v>0.8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -533,16 +533,16 @@
         <v>0.85</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -550,16 +550,16 @@
         <v>0.9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_9.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Confusion_Matrix_Elements_Fold_9.xlsx
@@ -414,16 +414,16 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +431,16 @@
         <v>0.55</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,16 +448,16 @@
         <v>0.6</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,16 +465,16 @@
         <v>0.65</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -482,16 +482,16 @@
         <v>0.7</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,16 +499,16 @@
         <v>0.75</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -516,16 +516,16 @@
         <v>0.8</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -533,16 +533,16 @@
         <v>0.85</v>
       </c>
       <c r="B9">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -550,16 +550,16 @@
         <v>0.9</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
